--- a/Risk Register/Risk_RegisterSakriya.xlsx
+++ b/Risk Register/Risk_RegisterSakriya.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41707378-454B-44C3-8E45-1A9A9C427F68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="609"/>
   </bookViews>
   <sheets>
     <sheet name="RISK REGISTER" sheetId="1" r:id="rId1"/>
@@ -27,7 +21,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'RISK REGISTER'!$1:$4</definedName>
     <definedName name="Riskprofile">'RISK PROFILE'!$A$4:$A$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -593,23 +587,23 @@
     <t>[SAKRIYA BAJRACHARYA] RISK REGISTER</t>
   </si>
   <si>
-    <t>Likelyhood of misunderstanding between my collegues</t>
-  </si>
-  <si>
-    <t>Meeting every other day to understand each others view</t>
-  </si>
-  <si>
     <t>Understand each others points to implement in the project</t>
+  </si>
+  <si>
+    <t>Less face to face communication</t>
+  </si>
+  <si>
+    <t>Video call meeting every other day to understand each others view</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="51">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2151,6 +2145,12 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2192,12 +2192,6 @@
     <xf numFmtId="0" fontId="47" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2299,85 +2293,85 @@
     <xf numFmtId="0" fontId="19" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2505,7 +2499,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2537,27 +2531,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2589,24 +2565,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2782,17 +2740,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="10" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="10" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="46" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="46" customWidth="1"/>
@@ -2814,125 +2772,125 @@
     <col min="19" max="16384" width="2.5703125" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:17" ht="21.75" thickBot="1">
+      <c r="A1" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="113"/>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="114" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="115"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1">
+      <c r="A2" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="114" t="s">
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="116"/>
-    </row>
-    <row r="3" spans="1:17" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121" t="s">
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="118"/>
+    </row>
+    <row r="3" spans="1:17" s="47" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="124" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="126" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="127"/>
-      <c r="H3" s="124" t="s">
+      <c r="H3" s="109" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="129" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="127"/>
-      <c r="K3" s="122" t="s">
+      <c r="K3" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="120" t="s">
+      <c r="L3" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="109" t="s">
+      <c r="M3" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="109" t="s">
+      <c r="N3" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="117" t="s">
+      <c r="O3" s="119" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="47" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="47" customFormat="1" ht="85.5" customHeight="1">
       <c r="A4" s="128"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="123"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="125"/>
       <c r="F4" s="48" t="s">
         <v>103</v>
       </c>
       <c r="G4" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="125"/>
+      <c r="H4" s="110"/>
       <c r="I4" s="49" t="s">
         <v>103</v>
       </c>
       <c r="J4" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="117"/>
-    </row>
-    <row r="5" spans="1:17" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="K4" s="125"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="119"/>
+    </row>
+    <row r="5" spans="1:17" ht="31.5">
       <c r="A5" s="50">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D5" s="51" t="s">
         <v>113</v>
@@ -2947,7 +2905,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I5" s="55">
         <v>1</v>
@@ -2956,13 +2914,13 @@
         <v>3</v>
       </c>
       <c r="K5" s="106" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L5" s="56">
-        <v>43536</v>
+        <v>43946</v>
       </c>
       <c r="M5" s="57">
-        <v>43567</v>
+        <v>43992</v>
       </c>
       <c r="N5" s="55" t="s">
         <v>10</v>
@@ -2980,7 +2938,7 @@
         <v>Green</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="46.5" customHeight="1">
       <c r="A6" s="50">
         <v>2.1</v>
       </c>
@@ -3015,10 +2973,10 @@
         <v>118</v>
       </c>
       <c r="L6" s="56">
-        <v>43536</v>
+        <v>43946</v>
       </c>
       <c r="M6" s="57">
-        <v>43567</v>
+        <v>43992</v>
       </c>
       <c r="N6" s="55" t="s">
         <v>14</v>
@@ -3036,7 +2994,7 @@
         <v>Red</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="105" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="105" customFormat="1" ht="49.5" customHeight="1">
       <c r="A7" s="95">
         <v>3.1</v>
       </c>
@@ -3071,10 +3029,10 @@
         <v>115</v>
       </c>
       <c r="L7" s="102">
-        <v>43536</v>
+        <v>43946</v>
       </c>
       <c r="M7" s="103">
-        <v>43567</v>
+        <v>43992</v>
       </c>
       <c r="N7" s="100" t="s">
         <v>10</v>
@@ -3092,7 +3050,7 @@
         <v>Green</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="105" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="105" customFormat="1" ht="34.5" customHeight="1">
       <c r="A8" s="95">
         <v>4.0999999999999996</v>
       </c>
@@ -3127,10 +3085,10 @@
         <v>112</v>
       </c>
       <c r="L8" s="102">
-        <v>43536</v>
+        <v>43946</v>
       </c>
       <c r="M8" s="103">
-        <v>43567</v>
+        <v>43992</v>
       </c>
       <c r="N8" s="100" t="s">
         <v>10</v>
@@ -3148,7 +3106,7 @@
         <v>Green</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="105" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="105" customFormat="1" ht="63">
       <c r="A9" s="95">
         <v>5.0999999999999996</v>
       </c>
@@ -3186,7 +3144,7 @@
         <v>43905</v>
       </c>
       <c r="M9" s="103">
-        <v>43936</v>
+        <v>43992</v>
       </c>
       <c r="N9" s="100" t="s">
         <v>10</v>
@@ -3196,7 +3154,7 @@
         <v>↔</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="23.25">
       <c r="A10" s="59"/>
       <c r="B10" s="68"/>
       <c r="C10" s="61"/>
@@ -3213,7 +3171,7 @@
       <c r="N10" s="64"/>
       <c r="O10" s="58"/>
     </row>
-    <row r="11" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="23.25">
       <c r="A11" s="59"/>
       <c r="B11" s="60"/>
       <c r="C11" s="61"/>
@@ -3241,7 +3199,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:17" s="71" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="71" customFormat="1" ht="23.25">
       <c r="A12" s="59"/>
       <c r="B12" s="60"/>
       <c r="C12" s="61"/>
@@ -3269,7 +3227,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="23.25">
       <c r="A13" s="59"/>
       <c r="B13" s="60"/>
       <c r="C13" s="61"/>
@@ -3297,7 +3255,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="23.25">
       <c r="A14" s="59"/>
       <c r="B14" s="60"/>
       <c r="C14" s="61"/>
@@ -3325,7 +3283,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="23.25">
       <c r="A15" s="73"/>
       <c r="B15" s="74"/>
       <c r="C15" s="75"/>
@@ -3353,7 +3311,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="23.25">
       <c r="A16" s="81"/>
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
@@ -3381,7 +3339,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="23.25">
       <c r="A17" s="81"/>
       <c r="B17" s="60"/>
       <c r="C17" s="61"/>
@@ -3409,7 +3367,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="23.25">
       <c r="A18" s="81"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -3437,7 +3395,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="23.25">
       <c r="A19" s="81"/>
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
@@ -3465,7 +3423,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="23.25">
       <c r="A20" s="81"/>
       <c r="B20" s="60"/>
       <c r="C20" s="83"/>
@@ -3493,7 +3451,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="23.25">
       <c r="A21" s="81"/>
       <c r="B21" s="60"/>
       <c r="C21" s="61"/>
@@ -3521,7 +3479,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="23.25">
       <c r="A22" s="81"/>
       <c r="B22" s="60"/>
       <c r="C22" s="61"/>
@@ -3549,7 +3507,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="23.25">
       <c r="A23" s="81"/>
       <c r="B23" s="60"/>
       <c r="C23" s="61"/>
@@ -3577,7 +3535,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="23.25">
       <c r="A24" s="81"/>
       <c r="B24" s="60"/>
       <c r="C24" s="61"/>
@@ -3605,7 +3563,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="23.25">
       <c r="A25" s="81"/>
       <c r="B25" s="60"/>
       <c r="C25" s="84"/>
@@ -3633,7 +3591,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:17" s="71" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="71" customFormat="1" ht="23.25">
       <c r="A26" s="81"/>
       <c r="B26" s="60"/>
       <c r="C26" s="61"/>
@@ -3661,7 +3619,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="23.25">
       <c r="A27" s="81"/>
       <c r="B27" s="60"/>
       <c r="C27" s="61"/>
@@ -3689,7 +3647,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="23.25">
       <c r="A28" s="81"/>
       <c r="B28" s="60"/>
       <c r="C28" s="61"/>
@@ -3717,7 +3675,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="23.25">
       <c r="A29" s="81"/>
       <c r="B29" s="60"/>
       <c r="C29" s="61"/>
@@ -3745,7 +3703,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="23.25">
       <c r="A30" s="81"/>
       <c r="B30" s="60"/>
       <c r="C30" s="61"/>
@@ -3773,7 +3731,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="23.25">
       <c r="A31" s="81"/>
       <c r="B31" s="60"/>
       <c r="C31" s="61"/>
@@ -3801,7 +3759,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="23.25">
       <c r="A32" s="81"/>
       <c r="B32" s="60"/>
       <c r="C32" s="61"/>
@@ -3829,7 +3787,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="23.25">
       <c r="A33" s="81"/>
       <c r="B33" s="60"/>
       <c r="C33" s="61"/>
@@ -3857,7 +3815,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="23.25">
       <c r="A34" s="81"/>
       <c r="B34" s="60"/>
       <c r="C34" s="61"/>
@@ -3885,7 +3843,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="23.25">
       <c r="A35" s="81"/>
       <c r="B35" s="60"/>
       <c r="C35" s="61"/>
@@ -3913,7 +3871,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="23.25">
       <c r="A36" s="81"/>
       <c r="B36" s="60"/>
       <c r="C36" s="61"/>
@@ -3941,7 +3899,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="23.25">
       <c r="A37" s="81"/>
       <c r="B37" s="60"/>
       <c r="C37" s="61"/>
@@ -3969,7 +3927,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="23.25">
       <c r="A38" s="81"/>
       <c r="B38" s="60"/>
       <c r="C38" s="61"/>
@@ -3997,7 +3955,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="23.25">
       <c r="A39" s="81"/>
       <c r="B39" s="60"/>
       <c r="C39" s="84"/>
@@ -4025,7 +3983,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:17" s="71" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" s="71" customFormat="1" ht="23.25">
       <c r="A40" s="81"/>
       <c r="B40" s="60"/>
       <c r="C40" s="61"/>
@@ -4053,7 +4011,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="23.25">
       <c r="A41" s="81"/>
       <c r="B41" s="60"/>
       <c r="C41" s="61"/>
@@ -4081,7 +4039,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="23.25">
       <c r="A42" s="81"/>
       <c r="B42" s="60"/>
       <c r="C42" s="61"/>
@@ -4109,7 +4067,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="23.25">
       <c r="A43" s="81"/>
       <c r="B43" s="60"/>
       <c r="C43" s="61"/>
@@ -4137,7 +4095,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="23.25">
       <c r="A44" s="81"/>
       <c r="B44" s="60"/>
       <c r="C44" s="61"/>
@@ -4165,7 +4123,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="23.25">
       <c r="A45" s="81"/>
       <c r="B45" s="60"/>
       <c r="C45" s="61"/>
@@ -4193,7 +4151,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="23.25">
       <c r="A46" s="81"/>
       <c r="B46" s="60"/>
       <c r="C46" s="61"/>
@@ -4221,7 +4179,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="23.25">
       <c r="A47" s="81"/>
       <c r="B47" s="60"/>
       <c r="C47" s="61"/>
@@ -4249,7 +4207,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="23.25">
       <c r="A48" s="81"/>
       <c r="B48" s="60"/>
       <c r="C48" s="61"/>
@@ -4277,7 +4235,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="23.25">
       <c r="A49" s="81"/>
       <c r="B49" s="60"/>
       <c r="C49" s="61"/>
@@ -4305,7 +4263,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="23.25">
       <c r="A50" s="81"/>
       <c r="B50" s="60"/>
       <c r="C50" s="61"/>
@@ -4333,7 +4291,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="23.25">
       <c r="A51" s="81"/>
       <c r="B51" s="60"/>
       <c r="C51" s="61"/>
@@ -4361,7 +4319,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="23.25">
       <c r="A52" s="81"/>
       <c r="B52" s="60"/>
       <c r="C52" s="61"/>
@@ -4389,7 +4347,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="23.25">
       <c r="A53" s="81"/>
       <c r="B53" s="60"/>
       <c r="C53" s="84"/>
@@ -4417,7 +4375,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:17" s="71" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" s="71" customFormat="1" ht="23.25">
       <c r="A54" s="81"/>
       <c r="B54" s="60"/>
       <c r="C54" s="61"/>
@@ -4445,7 +4403,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="23.25">
       <c r="A55" s="81"/>
       <c r="B55" s="60"/>
       <c r="C55" s="61"/>
@@ -4473,7 +4431,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="23.25">
       <c r="A56" s="81"/>
       <c r="B56" s="60"/>
       <c r="C56" s="61"/>
@@ -4501,7 +4459,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="23.25">
       <c r="A57" s="81"/>
       <c r="B57" s="60"/>
       <c r="C57" s="61"/>
@@ -4529,7 +4487,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="23.25">
       <c r="A58" s="81"/>
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
@@ -4557,7 +4515,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="23.25">
       <c r="A59" s="81"/>
       <c r="B59" s="60"/>
       <c r="C59" s="61"/>
@@ -4585,7 +4543,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="23.25">
       <c r="A60" s="81"/>
       <c r="B60" s="60"/>
       <c r="C60" s="61"/>
@@ -4613,7 +4571,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="23.25">
       <c r="A61" s="81"/>
       <c r="B61" s="60"/>
       <c r="C61" s="61"/>
@@ -4641,7 +4599,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="23.25">
       <c r="A62" s="81"/>
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
@@ -4669,7 +4627,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="23.25">
       <c r="A63" s="81"/>
       <c r="B63" s="60"/>
       <c r="C63" s="61"/>
@@ -4697,7 +4655,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="23.25">
       <c r="A64" s="81"/>
       <c r="B64" s="60"/>
       <c r="C64" s="61"/>
@@ -4725,7 +4683,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="23.25">
       <c r="A65" s="81"/>
       <c r="B65" s="60"/>
       <c r="C65" s="61"/>
@@ -4753,7 +4711,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="23.25">
       <c r="A66" s="81"/>
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
@@ -4781,7 +4739,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="23.25">
       <c r="A67" s="81"/>
       <c r="B67" s="60"/>
       <c r="C67" s="84"/>
@@ -4809,7 +4767,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:17" s="71" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" s="71" customFormat="1" ht="23.25">
       <c r="A68" s="81"/>
       <c r="B68" s="60"/>
       <c r="C68" s="61"/>
@@ -4837,7 +4795,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="23.25">
       <c r="A69" s="81"/>
       <c r="B69" s="60"/>
       <c r="C69" s="61"/>
@@ -4865,7 +4823,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="23.25">
       <c r="A70" s="81"/>
       <c r="B70" s="60"/>
       <c r="C70" s="61"/>
@@ -4893,7 +4851,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="23.25">
       <c r="A71" s="81"/>
       <c r="B71" s="60"/>
       <c r="C71" s="61"/>
@@ -4921,7 +4879,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="23.25">
       <c r="A72" s="81"/>
       <c r="B72" s="60"/>
       <c r="C72" s="61"/>
@@ -4949,7 +4907,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="23.25">
       <c r="A73" s="81"/>
       <c r="B73" s="60"/>
       <c r="C73" s="61"/>
@@ -4977,7 +4935,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="23.25">
       <c r="A74" s="81"/>
       <c r="B74" s="60"/>
       <c r="C74" s="61"/>
@@ -5005,7 +4963,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="23.25">
       <c r="A75" s="81"/>
       <c r="B75" s="60"/>
       <c r="C75" s="61"/>
@@ -5033,7 +4991,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="23.25">
       <c r="A76" s="81"/>
       <c r="B76" s="60"/>
       <c r="C76" s="61"/>
@@ -5061,7 +5019,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="23.25">
       <c r="A77" s="81"/>
       <c r="B77" s="60"/>
       <c r="C77" s="61"/>
@@ -5089,7 +5047,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="23.25">
       <c r="A78" s="81"/>
       <c r="B78" s="60"/>
       <c r="C78" s="61"/>
@@ -5117,7 +5075,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="23.25">
       <c r="A79" s="81"/>
       <c r="B79" s="60"/>
       <c r="C79" s="61"/>
@@ -5145,7 +5103,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="23.25">
       <c r="A80" s="81"/>
       <c r="B80" s="60"/>
       <c r="C80" s="61"/>
@@ -5173,7 +5131,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="23.25">
       <c r="A81" s="81"/>
       <c r="B81" s="60"/>
       <c r="C81" s="84"/>
@@ -5201,7 +5159,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:17" s="71" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" s="71" customFormat="1" ht="23.25">
       <c r="A82" s="81"/>
       <c r="B82" s="60"/>
       <c r="C82" s="61"/>
@@ -5229,7 +5187,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="23.25">
       <c r="A83" s="81"/>
       <c r="B83" s="60"/>
       <c r="C83" s="61"/>
@@ -5257,7 +5215,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="23.25">
       <c r="A84" s="81"/>
       <c r="B84" s="60"/>
       <c r="C84" s="61"/>
@@ -5285,7 +5243,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="23.25">
       <c r="A85" s="81"/>
       <c r="B85" s="60"/>
       <c r="C85" s="61"/>
@@ -5313,7 +5271,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="23.25">
       <c r="A86" s="81"/>
       <c r="B86" s="60"/>
       <c r="C86" s="61"/>
@@ -5341,7 +5299,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="23.25">
       <c r="A87" s="81"/>
       <c r="B87" s="60"/>
       <c r="C87" s="61"/>
@@ -5369,7 +5327,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="23.25">
       <c r="A88" s="81"/>
       <c r="B88" s="60"/>
       <c r="C88" s="61"/>
@@ -5397,7 +5355,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="23.25">
       <c r="A89" s="81"/>
       <c r="B89" s="60"/>
       <c r="C89" s="61"/>
@@ -5425,7 +5383,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="23.25">
       <c r="A90" s="81"/>
       <c r="B90" s="60"/>
       <c r="C90" s="61"/>
@@ -5453,7 +5411,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="23.25">
       <c r="A91" s="81"/>
       <c r="B91" s="60"/>
       <c r="C91" s="61"/>
@@ -5481,7 +5439,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="23.25">
       <c r="A92" s="81"/>
       <c r="B92" s="60"/>
       <c r="C92" s="61"/>
@@ -5509,7 +5467,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="23.25">
       <c r="A93" s="81"/>
       <c r="B93" s="60"/>
       <c r="C93" s="61"/>
@@ -5537,7 +5495,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="23.25">
       <c r="A94" s="81"/>
       <c r="B94" s="60"/>
       <c r="C94" s="61"/>
@@ -5565,7 +5523,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="23.25">
       <c r="A95" s="81"/>
       <c r="B95" s="60"/>
       <c r="C95" s="84"/>
@@ -5593,7 +5551,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:17" s="71" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" s="71" customFormat="1" ht="23.25">
       <c r="A96" s="81"/>
       <c r="B96" s="60"/>
       <c r="C96" s="61"/>
@@ -5621,7 +5579,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" ht="23.25">
       <c r="A97" s="81"/>
       <c r="B97" s="60"/>
       <c r="C97" s="61"/>
@@ -5649,7 +5607,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="23.25">
       <c r="A98" s="81"/>
       <c r="B98" s="60"/>
       <c r="C98" s="61"/>
@@ -5677,7 +5635,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" ht="23.25">
       <c r="A99" s="81"/>
       <c r="B99" s="60"/>
       <c r="C99" s="61"/>
@@ -5706,8 +5664,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Q99" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:Q99"/>
   <mergeCells count="17">
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="A1:O1"/>
@@ -5724,7 +5683,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="O5:O99">
@@ -5739,18 +5697,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Net risk exceeds gross risk" error="The net risk score should not exceed the gross risk score." sqref="I5:I99" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Net risk exceeds gross risk" error="The net risk score should not exceed the gross risk score." sqref="I5:I99">
       <formula1>1</formula1>
       <formula2>F5</formula2>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Net risk exceeds gross risk" error="The net risk score should not exceed the gross risk score." sqref="J5:J99" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="decimal" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Net risk exceeds gross risk" error="The net risk score should not exceed the gross risk score." sqref="J5:J99">
       <formula1>1</formula1>
       <formula2>G5</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N99" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N99">
       <formula1>Riskprofile</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date format" error="Please enter a date between 01/01/2000 and 31/12/2099 in the format dd/mm/yyyy." sqref="L5:M99" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date format" error="Please enter a date between 01/01/2000 and 31/12/2099 in the format dd/mm/yyyy." sqref="L5:M99">
       <formula1>36526</formula1>
       <formula2>73050</formula2>
     </dataValidation>
@@ -5765,7 +5723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5775,13 +5733,13 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="3" width="11.7109375" style="4" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="36" t="str">
         <f>'RISK REGISTER'!A1</f>
         <v>[SAKRIYA BAJRACHARYA] RISK REGISTER</v>
@@ -5807,7 +5765,7 @@
       <c r="T1" s="33"/>
       <c r="U1" s="33"/>
     </row>
-    <row r="2" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="13.5" thickBot="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -5830,7 +5788,7 @@
       <c r="T2" s="33"/>
       <c r="U2" s="33"/>
     </row>
-    <row r="3" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="30" customHeight="1" thickBot="1">
       <c r="A3" s="132" t="s">
         <v>30</v>
       </c>
@@ -5855,7 +5813,7 @@
       <c r="R3" s="33"/>
       <c r="S3" s="33"/>
     </row>
-    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="30" customHeight="1">
       <c r="A4" s="89" t="s">
         <v>20</v>
       </c>
@@ -5883,7 +5841,7 @@
       <c r="R4" s="33"/>
       <c r="S4" s="33"/>
     </row>
-    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="30" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -5911,7 +5869,7 @@
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
     </row>
-    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="30" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -5939,7 +5897,7 @@
       <c r="R6" s="33"/>
       <c r="S6" s="33"/>
     </row>
-    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="30" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -5967,7 +5925,7 @@
       <c r="R7" s="33"/>
       <c r="S7" s="33"/>
     </row>
-    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="30" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -5995,7 +5953,7 @@
       <c r="R8" s="33"/>
       <c r="S8" s="33"/>
     </row>
-    <row r="9" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
@@ -6023,7 +5981,7 @@
       <c r="R9" s="33"/>
       <c r="S9" s="33"/>
     </row>
-    <row r="10" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="30" customHeight="1" thickBot="1">
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
@@ -6041,7 +5999,7 @@
       <c r="R10" s="33"/>
       <c r="S10" s="33"/>
     </row>
-    <row r="11" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="134" t="s">
         <v>31</v>
       </c>
@@ -6066,7 +6024,7 @@
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
     </row>
-    <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="30" customHeight="1">
       <c r="A12" s="136" t="s">
         <v>27</v>
       </c>
@@ -6092,7 +6050,7 @@
       <c r="R12" s="33"/>
       <c r="S12" s="33"/>
     </row>
-    <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="30" customHeight="1">
       <c r="A13" s="138" t="s">
         <v>28</v>
       </c>
@@ -6118,7 +6076,7 @@
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
     </row>
-    <row r="14" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="130" t="s">
         <v>29</v>
       </c>
@@ -6165,7 +6123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6176,7 +6134,7 @@
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
@@ -6194,7 +6152,7 @@
     <col min="16" max="17" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="18">
       <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
@@ -6217,7 +6175,7 @@
       <c r="N1" s="143"/>
       <c r="O1" s="144"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15.75">
       <c r="A2" s="147" t="s">
         <v>2</v>
       </c>
@@ -6260,7 +6218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="69" thickBot="1">
       <c r="A3" s="148"/>
       <c r="B3" s="150"/>
       <c r="C3" s="150"/>
@@ -6285,7 +6243,7 @@
       <c r="N3" s="157"/>
       <c r="O3" s="141"/>
     </row>
-    <row r="4" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="25.5">
       <c r="A4" s="17"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -6311,7 +6269,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="25.5">
       <c r="A5" s="17"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -6335,7 +6293,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="25.5">
       <c r="A6" s="17"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -6359,7 +6317,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="25.5">
       <c r="A7" s="17"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6383,7 +6341,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="25.5">
       <c r="A8" s="17"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -6407,7 +6365,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="25.5">
       <c r="A9" s="17"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -6431,7 +6389,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="25.5">
       <c r="A10" s="17"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6455,7 +6413,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="25.5">
       <c r="A11" s="17"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -6479,7 +6437,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="25.5">
       <c r="A12" s="17"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6503,7 +6461,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="25.5">
       <c r="A13" s="17"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6527,7 +6485,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="25.5">
       <c r="A14" s="17"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6551,7 +6509,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="25.5">
       <c r="A15" s="17"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6575,7 +6533,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="25.5">
       <c r="A16" s="17"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6599,7 +6557,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="25.5">
       <c r="A17" s="17"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6623,7 +6581,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="25.5">
       <c r="A18" s="17"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6647,7 +6605,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="25.5">
       <c r="A19" s="17"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6671,7 +6629,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="25.5">
       <c r="A20" s="17"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6695,7 +6653,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="25.5">
       <c r="A21" s="17"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6719,7 +6677,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="25.5">
       <c r="A22" s="17"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -6764,18 +6722,18 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N22" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N22">
       <formula1>Riskprofile</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date format" error="Please enter a date between 01/01/2000 and 31/12/2099 in the format dd/mm/yyyy." sqref="L4:M22" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date format" error="Please enter a date between 01/01/2000 and 31/12/2099 in the format dd/mm/yyyy." sqref="L4:M22">
       <formula1>36526</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Net risk exceeds gross risk" error="The net risk score should not exceed the gross risk score." sqref="J4:J28" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="decimal" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Net risk exceeds gross risk" error="The net risk score should not exceed the gross risk score." sqref="J4:J28">
       <formula1>1</formula1>
       <formula2>G4</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Net risk exceeds gross risk" error="The net risk score should not exceed the gross risk score." sqref="I4:I28" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Net risk exceeds gross risk" error="The net risk score should not exceed the gross risk score." sqref="I4:I28">
       <formula1>1</formula1>
       <formula2>F4</formula2>
     </dataValidation>
@@ -6786,7 +6744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -6796,7 +6754,7 @@
       <selection activeCell="B10" sqref="B10:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="21" style="26" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="26" customWidth="1"/>
@@ -6815,29 +6773,29 @@
     <col min="18" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+    <row r="1" spans="1:16" ht="24.75" customHeight="1">
+      <c r="A1" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
       <c r="O1" s="45" t="s">
         <v>101</v>
       </c>
       <c r="P1" s="27"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -6847,7 +6805,7 @@
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="30" t="s">
         <v>35</v>
       </c>
@@ -6863,7 +6821,7 @@
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="26" t="s">
         <v>71</v>
       </c>
@@ -6879,7 +6837,7 @@
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>72</v>
       </c>
@@ -6895,7 +6853,7 @@
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
@@ -6908,7 +6866,7 @@
       <c r="O6" s="27"/>
       <c r="P6" s="27"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="29" t="s">
         <v>93</v>
       </c>
@@ -6924,7 +6882,7 @@
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
     </row>
-    <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="14.25" customHeight="1">
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -6937,7 +6895,7 @@
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
     </row>
-    <row r="9" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="31.5" customHeight="1">
       <c r="A9" s="41" t="s">
         <v>40</v>
       </c>
@@ -6947,12 +6905,12 @@
       <c r="C9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="163" t="s">
+      <c r="D9" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
@@ -6963,7 +6921,7 @@
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="42" t="s">
         <v>44</v>
       </c>
@@ -6973,12 +6931,12 @@
       <c r="C10" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="164" t="s">
+      <c r="D10" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
@@ -6989,7 +6947,7 @@
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="42" t="s">
         <v>47</v>
       </c>
@@ -6999,12 +6957,12 @@
       <c r="C11" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="187"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
@@ -7015,7 +6973,7 @@
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
     </row>
-    <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="14.25" customHeight="1">
       <c r="A12" s="42" t="s">
         <v>50</v>
       </c>
@@ -7025,12 +6983,12 @@
       <c r="C12" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="164" t="s">
+      <c r="D12" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="187"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
@@ -7041,7 +6999,7 @@
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="42" t="s">
         <v>53</v>
       </c>
@@ -7051,12 +7009,12 @@
       <c r="C13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="164" t="s">
+      <c r="D13" s="187" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
@@ -7067,7 +7025,7 @@
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="42" t="s">
         <v>56</v>
       </c>
@@ -7077,12 +7035,12 @@
       <c r="C14" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="164" t="s">
+      <c r="D14" s="187" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="187"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
@@ -7093,7 +7051,7 @@
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -7105,7 +7063,7 @@
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="30" t="s">
         <v>36</v>
       </c>
@@ -7120,7 +7078,7 @@
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="26" t="s">
         <v>73</v>
       </c>
@@ -7135,7 +7093,7 @@
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
     </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15.75" customHeight="1">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -7150,7 +7108,7 @@
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
@@ -7162,7 +7120,7 @@
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="29" t="s">
         <v>75</v>
       </c>
@@ -7178,7 +7136,7 @@
       <c r="O20" s="27"/>
       <c r="P20" s="27"/>
     </row>
-    <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="12.75" customHeight="1">
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -7190,167 +7148,167 @@
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="32"/>
-      <c r="B22" s="166" t="s">
+      <c r="B22" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="166"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166" t="s">
+      <c r="C22" s="185"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="166"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="166" t="s">
+      <c r="G22" s="185"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="166"/>
-      <c r="L22" s="166"/>
-      <c r="M22" s="166"/>
-      <c r="N22" s="166"/>
-      <c r="O22" s="166"/>
-      <c r="P22" s="166"/>
-      <c r="Q22" s="166"/>
-    </row>
-    <row r="23" spans="1:17" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="185"/>
+      <c r="L22" s="185"/>
+      <c r="M22" s="185"/>
+      <c r="N22" s="185"/>
+      <c r="O22" s="185"/>
+      <c r="P22" s="185"/>
+      <c r="Q22" s="185"/>
+    </row>
+    <row r="23" spans="1:17" ht="168" customHeight="1">
       <c r="A23" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="162" t="s">
+      <c r="B23" s="178" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="161" t="s">
+      <c r="C23" s="178"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="184" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="161" t="s">
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="161"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="161"/>
-    </row>
-    <row r="24" spans="1:17" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="184"/>
+      <c r="L23" s="184"/>
+      <c r="M23" s="184"/>
+      <c r="N23" s="184"/>
+      <c r="O23" s="184"/>
+      <c r="P23" s="184"/>
+      <c r="Q23" s="184"/>
+    </row>
+    <row r="24" spans="1:17" ht="156.75" customHeight="1">
       <c r="A24" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="162" t="s">
+      <c r="B24" s="178" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="161" t="s">
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="184" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161" t="s">
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="K24" s="161"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="161"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="161"/>
-      <c r="Q24" s="161"/>
-    </row>
-    <row r="25" spans="1:17" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="184"/>
+      <c r="L24" s="184"/>
+      <c r="M24" s="184"/>
+      <c r="N24" s="184"/>
+      <c r="O24" s="184"/>
+      <c r="P24" s="184"/>
+      <c r="Q24" s="184"/>
+    </row>
+    <row r="25" spans="1:17" ht="134.25" customHeight="1">
       <c r="A25" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="162" t="s">
+      <c r="B25" s="178" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="161" t="s">
+      <c r="C25" s="178"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="184" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161" t="s">
+      <c r="G25" s="184"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="184" t="s">
         <v>84</v>
       </c>
-      <c r="K25" s="161"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="161"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="161"/>
-      <c r="P25" s="161"/>
-      <c r="Q25" s="161"/>
-    </row>
-    <row r="26" spans="1:17" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="184"/>
+      <c r="L25" s="184"/>
+      <c r="M25" s="184"/>
+      <c r="N25" s="184"/>
+      <c r="O25" s="184"/>
+      <c r="P25" s="184"/>
+      <c r="Q25" s="184"/>
+    </row>
+    <row r="26" spans="1:17" ht="109.5" customHeight="1">
       <c r="A26" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="162" t="s">
+      <c r="B26" s="178" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="161" t="s">
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161" t="s">
+      <c r="G26" s="184"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="161"/>
-      <c r="Q26" s="161"/>
-    </row>
-    <row r="27" spans="1:17" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="184"/>
+      <c r="L26" s="184"/>
+      <c r="M26" s="184"/>
+      <c r="N26" s="184"/>
+      <c r="O26" s="184"/>
+      <c r="P26" s="184"/>
+      <c r="Q26" s="184"/>
+    </row>
+    <row r="27" spans="1:17" ht="100.5" customHeight="1">
       <c r="A27" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="162" t="s">
+      <c r="B27" s="178" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="161" t="s">
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="161" t="s">
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="K27" s="161"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="161"/>
-      <c r="P27" s="161"/>
-      <c r="Q27" s="161"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="184"/>
+      <c r="L27" s="184"/>
+      <c r="M27" s="184"/>
+      <c r="N27" s="184"/>
+      <c r="O27" s="184"/>
+      <c r="P27" s="184"/>
+      <c r="Q27" s="184"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1">
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
@@ -7362,179 +7320,179 @@
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185" t="s">
+    <row r="30" spans="1:17" ht="16.5" thickBot="1"/>
+    <row r="31" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A31" s="173" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="169" t="s">
+      <c r="C31" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="169" t="s">
+      <c r="D31" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="173" t="s">
+      <c r="E31" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="171" t="s">
+      <c r="F31" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="171" t="s">
+      <c r="G31" s="179" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="186"/>
+    <row r="32" spans="1:17" ht="16.5" thickBot="1">
+      <c r="A32" s="174"/>
       <c r="B32" s="39">
         <v>5</v>
       </c>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="186"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="180"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="174"/>
       <c r="B33" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="167" t="s">
+      <c r="C33" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="169" t="s">
+      <c r="D33" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="169" t="s">
+      <c r="E33" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="171" t="s">
+      <c r="F33" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="171" t="s">
+      <c r="G33" s="179" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="186"/>
+    <row r="34" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A34" s="174"/>
       <c r="B34" s="39">
         <v>4</v>
       </c>
-      <c r="C34" s="168"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="186"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="180"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="174"/>
       <c r="B35" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="167" t="s">
+      <c r="C35" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="167" t="s">
+      <c r="D35" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="167" t="s">
+      <c r="E35" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="169" t="s">
+      <c r="F35" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="169" t="s">
+      <c r="G35" s="176" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="186"/>
+    <row r="36" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A36" s="174"/>
       <c r="B36" s="39">
         <v>3</v>
       </c>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="170"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="186"/>
+      <c r="C36" s="162"/>
+      <c r="D36" s="162"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="174"/>
       <c r="B37" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="167" t="s">
+      <c r="C37" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="167" t="s">
+      <c r="D37" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="167" t="s">
+      <c r="E37" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="167" t="s">
+      <c r="F37" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="167" t="s">
+      <c r="G37" s="161" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="186"/>
+    <row r="38" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A38" s="174"/>
       <c r="B38" s="39">
         <v>2</v>
       </c>
-      <c r="C38" s="168"/>
-      <c r="D38" s="168"/>
-      <c r="E38" s="168"/>
-      <c r="F38" s="168"/>
-      <c r="G38" s="168"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="186"/>
+      <c r="C38" s="162"/>
+      <c r="D38" s="162"/>
+      <c r="E38" s="162"/>
+      <c r="F38" s="162"/>
+      <c r="G38" s="162"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="174"/>
       <c r="B39" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="167" t="s">
+      <c r="C39" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="167" t="s">
+      <c r="D39" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="167" t="s">
+      <c r="E39" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="167" t="s">
+      <c r="F39" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="G39" s="167" t="s">
+      <c r="G39" s="161" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="187"/>
+    <row r="40" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A40" s="175"/>
       <c r="B40" s="39">
         <v>1</v>
       </c>
-      <c r="C40" s="168"/>
-      <c r="D40" s="168"/>
-      <c r="E40" s="168"/>
-      <c r="F40" s="168"/>
-      <c r="G40" s="168"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="175" t="s">
+      <c r="C40" s="162"/>
+      <c r="D40" s="162"/>
+      <c r="E40" s="162"/>
+      <c r="F40" s="162"/>
+      <c r="G40" s="162"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="163" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="176"/>
+      <c r="B41" s="164"/>
       <c r="C41" s="40" t="s">
         <v>56</v>
       </c>
@@ -7551,9 +7509,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="177"/>
-      <c r="B42" s="178"/>
+    <row r="42" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A42" s="165"/>
+      <c r="B42" s="166"/>
       <c r="C42" s="39">
         <v>1</v>
       </c>
@@ -7570,39 +7528,77 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="179"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="181" t="s">
+    <row r="43" spans="1:15" ht="19.5" thickBot="1">
+      <c r="A43" s="167"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="182"/>
-      <c r="E43" s="182"/>
-      <c r="F43" s="182"/>
-      <c r="G43" s="183"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="184" t="s">
+      <c r="D43" s="170"/>
+      <c r="E43" s="170"/>
+      <c r="F43" s="170"/>
+      <c r="G43" s="171"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="184"/>
-      <c r="C45" s="184"/>
-      <c r="D45" s="184"/>
-      <c r="E45" s="184"/>
-      <c r="F45" s="184"/>
-      <c r="G45" s="184"/>
-      <c r="H45" s="184"/>
-      <c r="I45" s="184"/>
-      <c r="J45" s="184"/>
-      <c r="K45" s="184"/>
-      <c r="L45" s="184"/>
-      <c r="M45" s="184"/>
-      <c r="N45" s="184"/>
-      <c r="O45" s="184"/>
+      <c r="B45" s="172"/>
+      <c r="C45" s="172"/>
+      <c r="D45" s="172"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="172"/>
+      <c r="G45" s="172"/>
+      <c r="H45" s="172"/>
+      <c r="I45" s="172"/>
+      <c r="J45" s="172"/>
+      <c r="K45" s="172"/>
+      <c r="L45" s="172"/>
+      <c r="M45" s="172"/>
+      <c r="N45" s="172"/>
+      <c r="O45" s="172"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="54">
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="A41:B43"/>
     <mergeCell ref="C43:G43"/>
@@ -7619,44 +7615,6 @@
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7669,20 +7627,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="37" t="s">
         <v>96</v>
       </c>
@@ -7696,7 +7654,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -7711,7 +7669,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="37">
         <v>1</v>
       </c>
@@ -7726,7 +7684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="37">
         <v>1</v>
       </c>
@@ -7741,7 +7699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="37">
         <v>1</v>
       </c>
@@ -7756,7 +7714,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="37">
         <v>1</v>
       </c>
@@ -7771,7 +7729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="37">
         <v>2</v>
       </c>
@@ -7786,7 +7744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="37">
         <v>2</v>
       </c>
@@ -7801,7 +7759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="37">
         <v>2</v>
       </c>
@@ -7816,7 +7774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="37">
         <v>2</v>
       </c>
@@ -7831,7 +7789,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="37">
         <v>2</v>
       </c>
@@ -7846,7 +7804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="37">
         <v>3</v>
       </c>
@@ -7861,7 +7819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="37">
         <v>3</v>
       </c>
@@ -7876,7 +7834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="37">
         <v>3</v>
       </c>
@@ -7891,7 +7849,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="37">
         <v>3</v>
       </c>
@@ -7906,7 +7864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="37">
         <v>3</v>
       </c>
@@ -7921,7 +7879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="37">
         <v>4</v>
       </c>
@@ -7936,7 +7894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="37">
         <v>4</v>
       </c>
@@ -7951,7 +7909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="37">
         <v>4</v>
       </c>
@@ -7966,7 +7924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="37">
         <v>4</v>
       </c>
@@ -7981,7 +7939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="37">
         <v>4</v>
       </c>
@@ -7996,7 +7954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="37">
         <v>5</v>
       </c>
@@ -8011,7 +7969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="37">
         <v>5</v>
       </c>
@@ -8026,7 +7984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="37">
         <v>5</v>
       </c>
@@ -8041,7 +7999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="37">
         <v>5</v>
       </c>
@@ -8056,7 +8014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="37">
         <v>5</v>
       </c>
